--- a/datasets_single/kpcb_meropenem.xlsx
+++ b/datasets_single/kpcb_meropenem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russelllewis/Desktop/ACUTEWEBSITE/datasets_single/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6006393-ECC9-5447-9B8F-BFCCEE1123FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC8CBEC-B783-544B-ADC5-8E02B4957372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="3060" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9420" yWindow="4120" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ATCC_meropenem" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="9">
   <si>
     <t>replicate</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>mero_s</t>
+  </si>
+  <si>
+    <t>mero_mic</t>
+  </si>
+  <si>
+    <t>mero_mic2</t>
   </si>
 </sst>
 </file>
@@ -901,15 +907,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F85"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -928,8 +934,14 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -949,8 +961,16 @@
         <f>E2*42</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <f>E2/32</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>E2/1.5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -970,8 +990,16 @@
         <f t="shared" ref="F3:F66" si="0">E3*42</f>
         <v>0.49875000000000003</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="1">E3/32</f>
+        <v>3.7109375E-4</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="2">E3/1.5</f>
+        <v>7.9166666666666673E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -991,8 +1019,16 @@
         <f t="shared" si="0"/>
         <v>1.9950000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>1.484375E-3</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>3.1666666666666669E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1012,8 +1048,16 @@
         <f t="shared" si="0"/>
         <v>4.9874999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>3.7109374999999998E-3</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>7.9166666666666663E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1033,8 +1077,16 @@
         <f t="shared" si="0"/>
         <v>9.9749999999999996</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>7.4218749999999997E-3</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0.15833333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1054,8 +1106,16 @@
         <f t="shared" si="0"/>
         <v>49.875</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>3.7109375E-2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1075,8 +1135,16 @@
         <f t="shared" si="0"/>
         <v>99.75</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>7.421875E-2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>1.5833333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1096,8 +1164,16 @@
         <f t="shared" si="0"/>
         <v>199.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.1484375</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>3.1666666666666665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -1117,8 +1193,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>5</v>
       </c>
@@ -1138,8 +1222,16 @@
         <f t="shared" si="0"/>
         <v>4.9874999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>3.7109374999999998E-3</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>7.9166666666666663E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>5</v>
       </c>
@@ -1159,8 +1251,16 @@
         <f t="shared" si="0"/>
         <v>9.9749999999999996</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>7.4218749999999997E-3</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>0.15833333333333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>5</v>
       </c>
@@ -1180,8 +1280,16 @@
         <f t="shared" si="0"/>
         <v>19.95</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>1.4843749999999999E-2</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>0.31666666666666665</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>5</v>
       </c>
@@ -1201,8 +1309,16 @@
         <f t="shared" si="0"/>
         <v>99.75</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>7.421875E-2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>1.5833333333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5</v>
       </c>
@@ -1222,8 +1338,16 @@
         <f t="shared" si="0"/>
         <v>199.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0.1484375</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>3.1666666666666665</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -1243,8 +1367,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>6</v>
       </c>
@@ -1264,8 +1396,16 @@
         <f t="shared" si="0"/>
         <v>4.9874999999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>3.7109374999999998E-3</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>7.9166666666666663E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -1285,8 +1425,16 @@
         <f t="shared" si="0"/>
         <v>9.9749999999999996</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>7.4218749999999997E-3</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>0.15833333333333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6</v>
       </c>
@@ -1306,8 +1454,16 @@
         <f t="shared" si="0"/>
         <v>19.95</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>1.4843749999999999E-2</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>0.31666666666666665</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -1327,8 +1483,16 @@
         <f t="shared" si="0"/>
         <v>99.75</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>7.421875E-2</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>1.5833333333333333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>6</v>
       </c>
@@ -1348,8 +1512,16 @@
         <f t="shared" si="0"/>
         <v>199.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0.1484375</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>3.1666666666666665</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>7</v>
       </c>
@@ -1369,8 +1541,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>7</v>
       </c>
@@ -1390,8 +1570,16 @@
         <f t="shared" si="0"/>
         <v>4.9874999999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>3.7109374999999998E-3</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>7.9166666666666663E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>7</v>
       </c>
@@ -1411,8 +1599,16 @@
         <f t="shared" si="0"/>
         <v>9.9749999999999996</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>7.4218749999999997E-3</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>0.15833333333333333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>7</v>
       </c>
@@ -1432,8 +1628,16 @@
         <f t="shared" si="0"/>
         <v>19.95</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>1.4843749999999999E-2</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>0.31666666666666665</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>7</v>
       </c>
@@ -1453,8 +1657,16 @@
         <f t="shared" si="0"/>
         <v>39.9</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>2.9687499999999999E-2</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>0.6333333333333333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>7</v>
       </c>
@@ -1474,8 +1686,16 @@
         <f t="shared" si="0"/>
         <v>79.8</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>5.9374999999999997E-2</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>1.2666666666666666</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>7</v>
       </c>
@@ -1495,8 +1715,16 @@
         <f t="shared" si="0"/>
         <v>159.6</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>0.11874999999999999</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>2.5333333333333332</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>8</v>
       </c>
@@ -1516,8 +1744,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>8</v>
       </c>
@@ -1537,8 +1773,16 @@
         <f t="shared" si="0"/>
         <v>9.9749999999999996</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>7.4218749999999997E-3</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>0.15833333333333333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>8</v>
       </c>
@@ -1558,8 +1802,16 @@
         <f t="shared" si="0"/>
         <v>19.95</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>1.4843749999999999E-2</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>0.31666666666666665</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>8</v>
       </c>
@@ -1579,8 +1831,16 @@
         <f t="shared" si="0"/>
         <v>39.9</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>2.9687499999999999E-2</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>0.6333333333333333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>8</v>
       </c>
@@ -1600,8 +1860,16 @@
         <f t="shared" si="0"/>
         <v>79.8</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>5.9374999999999997E-2</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>1.2666666666666666</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>8</v>
       </c>
@@ -1621,8 +1889,16 @@
         <f t="shared" si="0"/>
         <v>159.6</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>0.11874999999999999</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>2.5333333333333332</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>9</v>
       </c>
@@ -1642,8 +1918,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>9</v>
       </c>
@@ -1663,8 +1947,16 @@
         <f t="shared" si="0"/>
         <v>9.9749999999999996</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>7.4218749999999997E-3</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>0.15833333333333333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>9</v>
       </c>
@@ -1684,8 +1976,16 @@
         <f t="shared" si="0"/>
         <v>19.95</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>1.4843749999999999E-2</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>0.31666666666666665</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>9</v>
       </c>
@@ -1705,8 +2005,16 @@
         <f t="shared" si="0"/>
         <v>39.9</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>2.9687499999999999E-2</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="2"/>
+        <v>0.6333333333333333</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>9</v>
       </c>
@@ -1726,8 +2034,16 @@
         <f t="shared" si="0"/>
         <v>79.8</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>5.9374999999999997E-2</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="2"/>
+        <v>1.2666666666666666</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>9</v>
       </c>
@@ -1747,8 +2063,16 @@
         <f t="shared" si="0"/>
         <v>159.6</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>0.11874999999999999</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="2"/>
+        <v>2.5333333333333332</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>10</v>
       </c>
@@ -1768,8 +2092,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>10</v>
       </c>
@@ -1789,8 +2121,16 @@
         <f t="shared" si="0"/>
         <v>19.95</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>1.4843749999999999E-2</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="2"/>
+        <v>0.31666666666666665</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>10</v>
       </c>
@@ -1810,8 +2150,16 @@
         <f t="shared" si="0"/>
         <v>39.9</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>2.9687499999999999E-2</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="2"/>
+        <v>0.6333333333333333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>10</v>
       </c>
@@ -1831,8 +2179,16 @@
         <f t="shared" si="0"/>
         <v>79.8</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>5.9374999999999997E-2</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="2"/>
+        <v>1.2666666666666666</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>10</v>
       </c>
@@ -1852,8 +2208,16 @@
         <f t="shared" si="0"/>
         <v>159.6</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>0.11874999999999999</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="2"/>
+        <v>2.5333333333333332</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>11</v>
       </c>
@@ -1873,8 +2237,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>11</v>
       </c>
@@ -1894,8 +2266,16 @@
         <f t="shared" si="0"/>
         <v>39.9</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>2.9687499999999999E-2</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="2"/>
+        <v>0.6333333333333333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>11</v>
       </c>
@@ -1915,8 +2295,16 @@
         <f t="shared" si="0"/>
         <v>79.8</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>5.9374999999999997E-2</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="2"/>
+        <v>1.2666666666666666</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>11</v>
       </c>
@@ -1936,8 +2324,16 @@
         <f t="shared" si="0"/>
         <v>159.6</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>0.11874999999999999</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="2"/>
+        <v>2.5333333333333332</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>12</v>
       </c>
@@ -1957,8 +2353,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>12</v>
       </c>
@@ -1978,8 +2382,16 @@
         <f t="shared" si="0"/>
         <v>39.9</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>2.9687499999999999E-2</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="2"/>
+        <v>0.6333333333333333</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>12</v>
       </c>
@@ -1999,8 +2411,16 @@
         <f t="shared" si="0"/>
         <v>79.8</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>5.9374999999999997E-2</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="2"/>
+        <v>1.2666666666666666</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>12</v>
       </c>
@@ -2020,8 +2440,16 @@
         <f t="shared" si="0"/>
         <v>159.6</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>0.11874999999999999</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="2"/>
+        <v>2.5333333333333332</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>13</v>
       </c>
@@ -2041,8 +2469,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>13</v>
       </c>
@@ -2062,8 +2498,16 @@
         <f t="shared" si="0"/>
         <v>39.9</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>2.9687499999999999E-2</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="2"/>
+        <v>0.6333333333333333</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>13</v>
       </c>
@@ -2083,8 +2527,16 @@
         <f t="shared" si="0"/>
         <v>79.8</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>5.9374999999999997E-2</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="2"/>
+        <v>1.2666666666666666</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>13</v>
       </c>
@@ -2104,8 +2556,16 @@
         <f t="shared" si="0"/>
         <v>159.6</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>0.11874999999999999</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="2"/>
+        <v>2.5333333333333332</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>14</v>
       </c>
@@ -2125,8 +2585,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>14</v>
       </c>
@@ -2146,8 +2614,16 @@
         <f t="shared" si="0"/>
         <v>19.95</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>1.4843749999999999E-2</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="2"/>
+        <v>0.31666666666666665</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>14</v>
       </c>
@@ -2167,8 +2643,16 @@
         <f t="shared" si="0"/>
         <v>39.9</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>2.9687499999999999E-2</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="2"/>
+        <v>0.6333333333333333</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>14</v>
       </c>
@@ -2188,8 +2672,16 @@
         <f t="shared" si="0"/>
         <v>79.8</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>5.9374999999999997E-2</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="2"/>
+        <v>1.2666666666666666</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>14</v>
       </c>
@@ -2209,8 +2701,16 @@
         <f t="shared" si="0"/>
         <v>159.6</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>0.11874999999999999</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="2"/>
+        <v>2.5333333333333332</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>15</v>
       </c>
@@ -2230,8 +2730,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>15</v>
       </c>
@@ -2251,8 +2759,16 @@
         <f t="shared" si="0"/>
         <v>49.875</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>3.7109375E-2</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="2"/>
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>15</v>
       </c>
@@ -2272,8 +2788,16 @@
         <f t="shared" si="0"/>
         <v>59.85</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>4.4531250000000001E-2</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="2"/>
+        <v>0.95000000000000007</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>15</v>
       </c>
@@ -2293,8 +2817,16 @@
         <f t="shared" si="0"/>
         <v>79.8</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>5.9374999999999997E-2</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="2"/>
+        <v>1.2666666666666666</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>16</v>
       </c>
@@ -2311,11 +2843,19 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F85" si="1">E67*42</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" ref="F67:F85" si="3">E67*42</f>
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G85" si="4">E67/32</f>
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H85" si="5">E67/1.5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>16</v>
       </c>
@@ -2332,11 +2872,19 @@
         <v>1.1875</v>
       </c>
       <c r="F68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>49.875</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G68">
+        <f t="shared" si="4"/>
+        <v>3.7109375E-2</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="5"/>
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>16</v>
       </c>
@@ -2353,11 +2901,19 @@
         <v>1.425</v>
       </c>
       <c r="F69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>59.85</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G69">
+        <f t="shared" si="4"/>
+        <v>4.4531250000000001E-2</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="5"/>
+        <v>0.95000000000000007</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>16</v>
       </c>
@@ -2374,11 +2930,19 @@
         <v>1.9</v>
       </c>
       <c r="F70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>79.8</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G70">
+        <f t="shared" si="4"/>
+        <v>5.9374999999999997E-2</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="5"/>
+        <v>1.2666666666666666</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>17</v>
       </c>
@@ -2395,11 +2959,19 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>17</v>
       </c>
@@ -2416,11 +2988,19 @@
         <v>1.1875</v>
       </c>
       <c r="F72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>49.875</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G72">
+        <f t="shared" si="4"/>
+        <v>3.7109375E-2</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="5"/>
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>17</v>
       </c>
@@ -2437,11 +3017,19 @@
         <v>1.425</v>
       </c>
       <c r="F73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>59.85</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G73">
+        <f t="shared" si="4"/>
+        <v>4.4531250000000001E-2</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="5"/>
+        <v>0.95000000000000007</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>18</v>
       </c>
@@ -2458,11 +3046,19 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>18</v>
       </c>
@@ -2479,11 +3075,19 @@
         <v>1.0687500000000001</v>
       </c>
       <c r="F75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>44.887500000000003</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G75">
+        <f t="shared" si="4"/>
+        <v>3.3398437500000003E-2</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="5"/>
+        <v>0.71250000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>18</v>
       </c>
@@ -2500,11 +3104,19 @@
         <v>1.9</v>
       </c>
       <c r="F76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>79.8</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G76">
+        <f t="shared" si="4"/>
+        <v>5.9374999999999997E-2</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="5"/>
+        <v>1.2666666666666666</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>19</v>
       </c>
@@ -2521,11 +3133,19 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>19</v>
       </c>
@@ -2542,11 +3162,19 @@
         <v>1.0687500000000001</v>
       </c>
       <c r="F78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>44.887500000000003</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G78">
+        <f t="shared" si="4"/>
+        <v>3.3398437500000003E-2</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="5"/>
+        <v>0.71250000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>19</v>
       </c>
@@ -2563,11 +3191,19 @@
         <v>1.9</v>
       </c>
       <c r="F79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>79.8</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G79">
+        <f t="shared" si="4"/>
+        <v>5.9374999999999997E-2</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="5"/>
+        <v>1.2666666666666666</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>20</v>
       </c>
@@ -2584,11 +3220,19 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>20</v>
       </c>
@@ -2605,11 +3249,19 @@
         <v>1.0687500000000001</v>
       </c>
       <c r="F81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>44.887500000000003</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G81">
+        <f t="shared" si="4"/>
+        <v>3.3398437500000003E-2</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="5"/>
+        <v>0.71250000000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>20</v>
       </c>
@@ -2626,11 +3278,19 @@
         <v>1.9</v>
       </c>
       <c r="F82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>79.8</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G82">
+        <f t="shared" si="4"/>
+        <v>5.9374999999999997E-2</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="5"/>
+        <v>1.2666666666666666</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>21</v>
       </c>
@@ -2647,11 +3307,19 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>21</v>
       </c>
@@ -2668,11 +3336,19 @@
         <v>1.0687500000000001</v>
       </c>
       <c r="F84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>44.887500000000003</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G84">
+        <f t="shared" si="4"/>
+        <v>3.3398437500000003E-2</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="5"/>
+        <v>0.71250000000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>21</v>
       </c>
@@ -2689,8 +3365,16 @@
         <v>1.9</v>
       </c>
       <c r="F85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>79.8</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="4"/>
+        <v>5.9374999999999997E-2</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="5"/>
+        <v>1.2666666666666666</v>
       </c>
     </row>
   </sheetData>

--- a/datasets_single/kpcb_meropenem.xlsx
+++ b/datasets_single/kpcb_meropenem.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russelllewis/Desktop/ACUTEWEBSITE/datasets_single/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC8CBEC-B783-544B-ADC5-8E02B4957372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F4A2E9-25F7-4542-8EBD-BD983EA50834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9420" yWindow="4120" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="9">
   <si>
     <t>replicate</t>
   </si>
@@ -208,7 +208,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,6 +386,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -549,9 +555,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -611,9 +618,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -651,7 +658,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -757,7 +764,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -899,7 +906,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -907,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H85"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -966,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <f>E2/1.5</f>
+        <f>F2/32</f>
         <v>0</v>
       </c>
     </row>
@@ -987,16 +994,16 @@
         <v>1.1875E-2</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" si="0">E3*42</f>
+        <f>E3*42</f>
         <v>0.49875000000000003</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G66" si="1">E3/32</f>
+        <f>E3/32</f>
         <v>3.7109375E-4</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H66" si="2">E3/1.5</f>
-        <v>7.9166666666666673E-3</v>
+        <f>F3/32</f>
+        <v>1.5585937500000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1016,16 +1023,16 @@
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f>E4*42</f>
         <v>1.9950000000000001</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
+        <f>E4/32</f>
         <v>1.484375E-3</v>
       </c>
       <c r="H4">
-        <f t="shared" si="2"/>
-        <v>3.1666666666666669E-2</v>
+        <f>F4/32</f>
+        <v>6.2343750000000003E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1045,16 +1052,16 @@
         <v>0.11874999999999999</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f>E5*42</f>
         <v>4.9874999999999998</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
+        <f>E5/32</f>
         <v>3.7109374999999998E-3</v>
       </c>
       <c r="H5">
-        <f t="shared" si="2"/>
-        <v>7.9166666666666663E-2</v>
+        <f>F5/32</f>
+        <v>0.15585937499999999</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1074,16 +1081,16 @@
         <v>0.23749999999999999</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f>E6*42</f>
         <v>9.9749999999999996</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f>E6/32</f>
         <v>7.4218749999999997E-3</v>
       </c>
       <c r="H6">
-        <f t="shared" si="2"/>
-        <v>0.15833333333333333</v>
+        <f>F6/32</f>
+        <v>0.31171874999999999</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1103,16 +1110,16 @@
         <v>1.1875</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f>E7*42</f>
         <v>49.875</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f>E7/32</f>
         <v>3.7109375E-2</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
-        <v>0.79166666666666663</v>
+        <f>F7/32</f>
+        <v>1.55859375</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1132,16 +1139,16 @@
         <v>2.375</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f>E8*42</f>
         <v>99.75</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f>E8/32</f>
         <v>7.421875E-2</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
-        <v>1.5833333333333333</v>
+        <f>F8/32</f>
+        <v>3.1171875</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1161,16 +1168,16 @@
         <v>4.75</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f>E9*42</f>
         <v>199.5</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f>E9/32</f>
         <v>0.1484375</v>
       </c>
       <c r="H9">
-        <f t="shared" si="2"/>
-        <v>3.1666666666666665</v>
+        <f>F9/32</f>
+        <v>6.234375</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1190,15 +1197,15 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f>E10*42</f>
         <v>0</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <f>E10/32</f>
         <v>0</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
+        <f>F10/32</f>
         <v>0</v>
       </c>
     </row>
@@ -1219,16 +1226,16 @@
         <v>0.11874999999999999</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f>E11*42</f>
         <v>4.9874999999999998</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
+        <f>E11/32</f>
         <v>3.7109374999999998E-3</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
-        <v>7.9166666666666663E-2</v>
+        <f>F11/32</f>
+        <v>0.15585937499999999</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1248,16 +1255,16 @@
         <v>0.23749999999999999</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f>E12*42</f>
         <v>9.9749999999999996</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
+        <f>E12/32</f>
         <v>7.4218749999999997E-3</v>
       </c>
       <c r="H12">
-        <f t="shared" si="2"/>
-        <v>0.15833333333333333</v>
+        <f>F12/32</f>
+        <v>0.31171874999999999</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1271,56 +1278,56 @@
         <v>10000</v>
       </c>
       <c r="D13" s="1">
-        <v>15.33</v>
+        <v>24</v>
       </c>
       <c r="E13" s="1">
-        <v>0.47499999999999998</v>
+        <v>2.375</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
-        <v>19.95</v>
+        <f>E13*42</f>
+        <v>99.75</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
-        <v>1.4843749999999999E-2</v>
+        <f>E13/32</f>
+        <v>7.421875E-2</v>
       </c>
       <c r="H13">
-        <f t="shared" si="2"/>
-        <v>0.31666666666666665</v>
+        <f>F13/32</f>
+        <v>3.1171875</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>10000</v>
+      </c>
+      <c r="D14">
         <v>24</v>
       </c>
-      <c r="E14" s="1">
-        <v>2.375</v>
+      <c r="E14">
+        <v>4.75</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
-        <v>99.75</v>
+        <f>E14*42</f>
+        <v>199.5</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
-        <v>7.421875E-2</v>
+        <f>E14/32</f>
+        <v>0.1484375</v>
       </c>
       <c r="H14">
-        <f t="shared" si="2"/>
-        <v>1.5833333333333333</v>
+        <f>F14/32</f>
+        <v>6.234375</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -1329,22 +1336,22 @@
         <v>10000</v>
       </c>
       <c r="D15">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E15">
-        <v>4.75</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
-        <v>199.5</v>
+        <f>E15*42</f>
+        <v>0</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
-        <v>0.1484375</v>
+        <f>E15/32</f>
+        <v>0</v>
       </c>
       <c r="H15">
-        <f t="shared" si="2"/>
-        <v>3.1666666666666665</v>
+        <f>F15/32</f>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1361,19 +1368,19 @@
         <v>9</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.11874999999999999</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>E16*42</f>
+        <v>4.9874999999999998</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>E16/32</f>
+        <v>3.7109374999999998E-3</v>
       </c>
       <c r="H16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>F16/32</f>
+        <v>0.15585937499999999</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1390,19 +1397,19 @@
         <v>9</v>
       </c>
       <c r="E17">
-        <v>0.11874999999999999</v>
+        <v>0.23749999999999999</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
-        <v>4.9874999999999998</v>
+        <f>E17*42</f>
+        <v>9.9749999999999996</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
-        <v>3.7109374999999998E-3</v>
+        <f>E17/32</f>
+        <v>7.4218749999999997E-3</v>
       </c>
       <c r="H17">
-        <f t="shared" si="2"/>
-        <v>7.9166666666666663E-2</v>
+        <f>F17/32</f>
+        <v>0.31171874999999999</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1416,22 +1423,22 @@
         <v>10000</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>0.23749999999999999</v>
+        <v>2.375</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
-        <v>9.9749999999999996</v>
+        <f>E18*42</f>
+        <v>99.75</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
-        <v>7.4218749999999997E-3</v>
+        <f>E18/32</f>
+        <v>7.421875E-2</v>
       </c>
       <c r="H18">
-        <f t="shared" si="2"/>
-        <v>0.15833333333333333</v>
+        <f>F18/32</f>
+        <v>3.1171875</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1445,27 +1452,27 @@
         <v>10000</v>
       </c>
       <c r="D19">
-        <v>13.66</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>0.47499999999999998</v>
+        <v>4.75</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
-        <v>19.95</v>
+        <f>E19*42</f>
+        <v>199.5</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
-        <v>1.4843749999999999E-2</v>
+        <f>E19/32</f>
+        <v>0.1484375</v>
       </c>
       <c r="H19">
-        <f t="shared" si="2"/>
-        <v>0.31666666666666665</v>
+        <f>F19/32</f>
+        <v>6.234375</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -1474,27 +1481,27 @@
         <v>10000</v>
       </c>
       <c r="D20">
-        <v>24</v>
+        <v>9.83</v>
       </c>
       <c r="E20">
-        <v>2.375</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
-        <v>99.75</v>
+        <f>E20*42</f>
+        <v>0</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
-        <v>7.421875E-2</v>
+        <f>E20/32</f>
+        <v>0</v>
       </c>
       <c r="H20">
-        <f t="shared" si="2"/>
-        <v>1.5833333333333333</v>
+        <f>F20/32</f>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -1503,22 +1510,22 @@
         <v>10000</v>
       </c>
       <c r="D21">
-        <v>24</v>
+        <v>9.83</v>
       </c>
       <c r="E21">
-        <v>4.75</v>
+        <v>0.11874999999999999</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
-        <v>199.5</v>
+        <f>E21*42</f>
+        <v>4.9874999999999998</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
-        <v>0.1484375</v>
+        <f>E21/32</f>
+        <v>3.7109374999999998E-3</v>
       </c>
       <c r="H21">
-        <f t="shared" si="2"/>
-        <v>3.1666666666666665</v>
+        <f>F21/32</f>
+        <v>0.15585937499999999</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1535,19 +1542,19 @@
         <v>9.83</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.23749999999999999</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>E22*42</f>
+        <v>9.9749999999999996</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>E22/32</f>
+        <v>7.4218749999999997E-3</v>
       </c>
       <c r="H22">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>F22/32</f>
+        <v>0.31171874999999999</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1561,22 +1568,22 @@
         <v>10000</v>
       </c>
       <c r="D23">
-        <v>9.83</v>
+        <v>10.83</v>
       </c>
       <c r="E23">
-        <v>0.11874999999999999</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
-        <v>4.9874999999999998</v>
+        <f>E23*42</f>
+        <v>19.95</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
-        <v>3.7109374999999998E-3</v>
+        <f>E23/32</f>
+        <v>1.4843749999999999E-2</v>
       </c>
       <c r="H23">
-        <f t="shared" si="2"/>
-        <v>7.9166666666666663E-2</v>
+        <f>F23/32</f>
+        <v>0.62343749999999998</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1590,22 +1597,22 @@
         <v>10000</v>
       </c>
       <c r="D24">
-        <v>9.83</v>
+        <v>12.66</v>
       </c>
       <c r="E24">
-        <v>0.23749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
-        <v>9.9749999999999996</v>
+        <f>E24*42</f>
+        <v>39.9</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
-        <v>7.4218749999999997E-3</v>
+        <f>E24/32</f>
+        <v>2.9687499999999999E-2</v>
       </c>
       <c r="H24">
-        <f t="shared" si="2"/>
-        <v>0.15833333333333333</v>
+        <f>F24/32</f>
+        <v>1.246875</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1619,22 +1626,22 @@
         <v>10000</v>
       </c>
       <c r="D25">
-        <v>10.83</v>
+        <v>19</v>
       </c>
       <c r="E25">
-        <v>0.47499999999999998</v>
+        <v>1.9</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
-        <v>19.95</v>
+        <f>E25*42</f>
+        <v>79.8</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
-        <v>1.4843749999999999E-2</v>
+        <f>E25/32</f>
+        <v>5.9374999999999997E-2</v>
       </c>
       <c r="H25">
-        <f t="shared" si="2"/>
-        <v>0.31666666666666665</v>
+        <f>F25/32</f>
+        <v>2.4937499999999999</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1648,27 +1655,27 @@
         <v>10000</v>
       </c>
       <c r="D26">
-        <v>12.66</v>
+        <v>24</v>
       </c>
       <c r="E26">
-        <v>0.95</v>
+        <v>3.8</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
-        <v>39.9</v>
+        <f>E26*42</f>
+        <v>159.6</v>
       </c>
       <c r="G26">
-        <f t="shared" si="1"/>
-        <v>2.9687499999999999E-2</v>
+        <f>E26/32</f>
+        <v>0.11874999999999999</v>
       </c>
       <c r="H26">
-        <f t="shared" si="2"/>
-        <v>0.6333333333333333</v>
+        <f>F26/32</f>
+        <v>4.9874999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
@@ -1677,27 +1684,27 @@
         <v>10000</v>
       </c>
       <c r="D27">
-        <v>19</v>
+        <v>9.83</v>
       </c>
       <c r="E27">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
-        <v>79.8</v>
+        <f>E27*42</f>
+        <v>0</v>
       </c>
       <c r="G27">
-        <f t="shared" si="1"/>
-        <v>5.9374999999999997E-2</v>
+        <f>E27/32</f>
+        <v>0</v>
       </c>
       <c r="H27">
-        <f t="shared" si="2"/>
-        <v>1.2666666666666666</v>
+        <f>F27/32</f>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
@@ -1706,22 +1713,22 @@
         <v>10000</v>
       </c>
       <c r="D28">
-        <v>24</v>
+        <v>9.66</v>
       </c>
       <c r="E28">
-        <v>3.8</v>
+        <v>0.23749999999999999</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
-        <v>159.6</v>
+        <f>E28*42</f>
+        <v>9.9749999999999996</v>
       </c>
       <c r="G28">
-        <f t="shared" si="1"/>
-        <v>0.11874999999999999</v>
+        <f>E28/32</f>
+        <v>7.4218749999999997E-3</v>
       </c>
       <c r="H28">
-        <f t="shared" si="2"/>
-        <v>2.5333333333333332</v>
+        <f>F28/32</f>
+        <v>0.31171874999999999</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1735,22 +1742,22 @@
         <v>10000</v>
       </c>
       <c r="D29">
-        <v>9.83</v>
+        <v>10.5</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>E29*42</f>
+        <v>19.95</v>
       </c>
       <c r="G29">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>E29/32</f>
+        <v>1.4843749999999999E-2</v>
       </c>
       <c r="H29">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>F29/32</f>
+        <v>0.62343749999999998</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1764,51 +1771,51 @@
         <v>10000</v>
       </c>
       <c r="D30">
-        <v>9.66</v>
+        <v>12.6</v>
       </c>
       <c r="E30">
-        <v>0.23749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
-        <v>9.9749999999999996</v>
+        <f>E30*42</f>
+        <v>39.9</v>
       </c>
       <c r="G30">
-        <f t="shared" si="1"/>
-        <v>7.4218749999999997E-3</v>
+        <f>E30/32</f>
+        <v>2.9687499999999999E-2</v>
       </c>
       <c r="H30">
-        <f t="shared" si="2"/>
-        <v>0.15833333333333333</v>
+        <f>F30/32</f>
+        <v>1.246875</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="A31" s="2">
         <v>8</v>
       </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31">
-        <v>10000</v>
-      </c>
-      <c r="D31">
-        <v>10.5</v>
-      </c>
-      <c r="E31">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="0"/>
-        <v>19.95</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="1"/>
-        <v>1.4843749999999999E-2</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="2"/>
-        <v>0.31666666666666665</v>
+      <c r="B31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D31" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="F31" s="2">
+        <f>E31*42</f>
+        <v>79.8</v>
+      </c>
+      <c r="G31" s="2">
+        <f>E31/32</f>
+        <v>5.9374999999999997E-2</v>
+      </c>
+      <c r="H31" s="2">
+        <f>F31/32</f>
+        <v>2.4937499999999999</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -1822,27 +1829,27 @@
         <v>10000</v>
       </c>
       <c r="D32">
-        <v>12.6</v>
+        <v>24</v>
       </c>
       <c r="E32">
-        <v>0.95</v>
+        <v>3.8</v>
       </c>
       <c r="F32">
-        <f t="shared" si="0"/>
-        <v>39.9</v>
+        <f>E32*42</f>
+        <v>159.6</v>
       </c>
       <c r="G32">
-        <f t="shared" si="1"/>
-        <v>2.9687499999999999E-2</v>
+        <f>E32/32</f>
+        <v>0.11874999999999999</v>
       </c>
       <c r="H32">
-        <f t="shared" si="2"/>
-        <v>0.6333333333333333</v>
+        <f>F32/32</f>
+        <v>4.9874999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
@@ -1851,27 +1858,27 @@
         <v>10000</v>
       </c>
       <c r="D33">
-        <v>20.5</v>
+        <v>9.5</v>
       </c>
       <c r="E33">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <f t="shared" si="0"/>
-        <v>79.8</v>
+        <f>E33*42</f>
+        <v>0</v>
       </c>
       <c r="G33">
-        <f t="shared" si="1"/>
-        <v>5.9374999999999997E-2</v>
+        <f>E33/32</f>
+        <v>0</v>
       </c>
       <c r="H33">
-        <f t="shared" si="2"/>
-        <v>1.2666666666666666</v>
+        <f>F33/32</f>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
@@ -1880,22 +1887,22 @@
         <v>10000</v>
       </c>
       <c r="D34">
-        <v>24</v>
+        <v>9.25</v>
       </c>
       <c r="E34">
-        <v>3.8</v>
+        <v>0.23749999999999999</v>
       </c>
       <c r="F34">
-        <f t="shared" si="0"/>
-        <v>159.6</v>
+        <f>E34*42</f>
+        <v>9.9749999999999996</v>
       </c>
       <c r="G34">
-        <f t="shared" si="1"/>
-        <v>0.11874999999999999</v>
+        <f>E34/32</f>
+        <v>7.4218749999999997E-3</v>
       </c>
       <c r="H34">
-        <f t="shared" si="2"/>
-        <v>2.5333333333333332</v>
+        <f>F34/32</f>
+        <v>0.31171874999999999</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -1909,22 +1916,22 @@
         <v>10000</v>
       </c>
       <c r="D35">
-        <v>9.5</v>
+        <v>11.5</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="F35">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>E35*42</f>
+        <v>19.95</v>
       </c>
       <c r="G35">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>E35/32</f>
+        <v>1.4843749999999999E-2</v>
       </c>
       <c r="H35">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>F35/32</f>
+        <v>0.62343749999999998</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -1938,51 +1945,51 @@
         <v>10000</v>
       </c>
       <c r="D36">
-        <v>9.25</v>
+        <v>12.83</v>
       </c>
       <c r="E36">
-        <v>0.23749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F36">
-        <f t="shared" si="0"/>
-        <v>9.9749999999999996</v>
+        <f>E36*42</f>
+        <v>39.9</v>
       </c>
       <c r="G36">
-        <f t="shared" si="1"/>
-        <v>7.4218749999999997E-3</v>
+        <f>E36/32</f>
+        <v>2.9687499999999999E-2</v>
       </c>
       <c r="H36">
-        <f t="shared" si="2"/>
-        <v>0.15833333333333333</v>
+        <f>F36/32</f>
+        <v>1.246875</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="A37" s="2">
         <v>9</v>
       </c>
-      <c r="B37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37">
-        <v>10000</v>
-      </c>
-      <c r="D37">
-        <v>11.5</v>
-      </c>
-      <c r="E37">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="0"/>
-        <v>19.95</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="1"/>
-        <v>1.4843749999999999E-2</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="2"/>
-        <v>0.31666666666666665</v>
+      <c r="B37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D37" s="2">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="F37" s="2">
+        <f>E37*42</f>
+        <v>79.8</v>
+      </c>
+      <c r="G37" s="2">
+        <f>E37/32</f>
+        <v>5.9374999999999997E-2</v>
+      </c>
+      <c r="H37" s="2">
+        <f>F37/32</f>
+        <v>2.4937499999999999</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -1996,56 +2003,56 @@
         <v>10000</v>
       </c>
       <c r="D38">
-        <v>12.83</v>
+        <v>24</v>
       </c>
       <c r="E38">
-        <v>0.95</v>
+        <v>3.8</v>
       </c>
       <c r="F38">
-        <f t="shared" si="0"/>
-        <v>39.9</v>
+        <f>E38*42</f>
+        <v>159.6</v>
       </c>
       <c r="G38">
-        <f t="shared" si="1"/>
-        <v>2.9687499999999999E-2</v>
+        <f>E38/32</f>
+        <v>0.11874999999999999</v>
       </c>
       <c r="H38">
-        <f t="shared" si="2"/>
-        <v>0.6333333333333333</v>
+        <f>F38/32</f>
+        <v>4.9874999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>10000</v>
+      </c>
+      <c r="D39">
         <v>9</v>
       </c>
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39">
-        <v>10000</v>
-      </c>
-      <c r="D39">
-        <v>19.399999999999999</v>
-      </c>
       <c r="E39">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <f t="shared" si="0"/>
-        <v>79.8</v>
+        <f>E39*42</f>
+        <v>0</v>
       </c>
       <c r="G39">
-        <f t="shared" si="1"/>
-        <v>5.9374999999999997E-2</v>
+        <f>E39/32</f>
+        <v>0</v>
       </c>
       <c r="H39">
-        <f t="shared" si="2"/>
-        <v>1.2666666666666666</v>
+        <f>F39/32</f>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
@@ -2054,22 +2061,22 @@
         <v>10000</v>
       </c>
       <c r="D40">
-        <v>24</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E40">
-        <v>3.8</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="F40">
-        <f t="shared" si="0"/>
-        <v>159.6</v>
+        <f>E40*42</f>
+        <v>19.95</v>
       </c>
       <c r="G40">
-        <f t="shared" si="1"/>
-        <v>0.11874999999999999</v>
+        <f>E40/32</f>
+        <v>1.4843749999999999E-2</v>
       </c>
       <c r="H40">
-        <f t="shared" si="2"/>
-        <v>2.5333333333333332</v>
+        <f>F40/32</f>
+        <v>0.62343749999999998</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -2083,22 +2090,22 @@
         <v>10000</v>
       </c>
       <c r="D41">
-        <v>9</v>
+        <v>11.3</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F41">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>E41*42</f>
+        <v>39.9</v>
       </c>
       <c r="G41">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>E41/32</f>
+        <v>2.9687499999999999E-2</v>
       </c>
       <c r="H41">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>F41/32</f>
+        <v>1.246875</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -2112,22 +2119,22 @@
         <v>10000</v>
       </c>
       <c r="D42">
-        <v>9.1999999999999993</v>
+        <v>22</v>
       </c>
       <c r="E42">
-        <v>0.47499999999999998</v>
+        <v>1.9</v>
       </c>
       <c r="F42">
-        <f t="shared" si="0"/>
-        <v>19.95</v>
+        <f>E42*42</f>
+        <v>79.8</v>
       </c>
       <c r="G42">
-        <f t="shared" si="1"/>
-        <v>1.4843749999999999E-2</v>
+        <f>E42/32</f>
+        <v>5.9374999999999997E-2</v>
       </c>
       <c r="H42">
-        <f t="shared" si="2"/>
-        <v>0.31666666666666665</v>
+        <f>F42/32</f>
+        <v>2.4937499999999999</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -2141,27 +2148,27 @@
         <v>10000</v>
       </c>
       <c r="D43">
-        <v>11.3</v>
+        <v>24</v>
       </c>
       <c r="E43">
-        <v>0.95</v>
+        <v>3.8</v>
       </c>
       <c r="F43">
-        <f t="shared" si="0"/>
-        <v>39.9</v>
+        <f>E43*42</f>
+        <v>159.6</v>
       </c>
       <c r="G43">
-        <f t="shared" si="1"/>
-        <v>2.9687499999999999E-2</v>
+        <f>E43/32</f>
+        <v>0.11874999999999999</v>
       </c>
       <c r="H43">
-        <f t="shared" si="2"/>
-        <v>0.6333333333333333</v>
+        <f>F43/32</f>
+        <v>4.9874999999999998</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
@@ -2170,27 +2177,27 @@
         <v>10000</v>
       </c>
       <c r="D44">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E44">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <f t="shared" si="0"/>
-        <v>79.8</v>
+        <f>E44*42</f>
+        <v>0</v>
       </c>
       <c r="G44">
-        <f t="shared" si="1"/>
-        <v>5.9374999999999997E-2</v>
+        <f>E44/32</f>
+        <v>0</v>
       </c>
       <c r="H44">
-        <f t="shared" si="2"/>
-        <v>1.2666666666666666</v>
+        <f>F44/32</f>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
@@ -2199,22 +2206,22 @@
         <v>10000</v>
       </c>
       <c r="D45">
-        <v>24</v>
+        <v>11.2</v>
       </c>
       <c r="E45">
-        <v>3.8</v>
+        <v>0.95</v>
       </c>
       <c r="F45">
-        <f t="shared" si="0"/>
-        <v>159.6</v>
+        <f>E45*42</f>
+        <v>39.9</v>
       </c>
       <c r="G45">
-        <f t="shared" si="1"/>
-        <v>0.11874999999999999</v>
+        <f>E45/32</f>
+        <v>2.9687499999999999E-2</v>
       </c>
       <c r="H45">
-        <f t="shared" si="2"/>
-        <v>2.5333333333333332</v>
+        <f>F45/32</f>
+        <v>1.246875</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -2228,22 +2235,22 @@
         <v>10000</v>
       </c>
       <c r="D46">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="F46">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>E46*42</f>
+        <v>79.8</v>
       </c>
       <c r="G46">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>E46/32</f>
+        <v>5.9374999999999997E-2</v>
       </c>
       <c r="H46">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>F46/32</f>
+        <v>2.4937499999999999</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -2257,27 +2264,27 @@
         <v>10000</v>
       </c>
       <c r="D47">
-        <v>11.2</v>
+        <v>24</v>
       </c>
       <c r="E47">
-        <v>0.95</v>
+        <v>3.8</v>
       </c>
       <c r="F47">
-        <f t="shared" si="0"/>
-        <v>39.9</v>
+        <f>E47*42</f>
+        <v>159.6</v>
       </c>
       <c r="G47">
-        <f t="shared" si="1"/>
-        <v>2.9687499999999999E-2</v>
+        <f>E47/32</f>
+        <v>0.11874999999999999</v>
       </c>
       <c r="H47">
-        <f t="shared" si="2"/>
-        <v>0.6333333333333333</v>
+        <f>F47/32</f>
+        <v>4.9874999999999998</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
@@ -2286,27 +2293,27 @@
         <v>10000</v>
       </c>
       <c r="D48">
-        <v>24</v>
+        <v>9.4</v>
       </c>
       <c r="E48">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <f t="shared" si="0"/>
-        <v>79.8</v>
+        <f>E48*42</f>
+        <v>0</v>
       </c>
       <c r="G48">
-        <f t="shared" si="1"/>
-        <v>5.9374999999999997E-2</v>
+        <f>E48/32</f>
+        <v>0</v>
       </c>
       <c r="H48">
-        <f t="shared" si="2"/>
-        <v>1.2666666666666666</v>
+        <f>F48/32</f>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
@@ -2315,51 +2322,51 @@
         <v>10000</v>
       </c>
       <c r="D49">
-        <v>24</v>
+        <v>11.33</v>
       </c>
       <c r="E49">
-        <v>3.8</v>
+        <v>0.95</v>
       </c>
       <c r="F49">
-        <f t="shared" si="0"/>
-        <v>159.6</v>
+        <f>E49*42</f>
+        <v>39.9</v>
       </c>
       <c r="G49">
-        <f t="shared" si="1"/>
-        <v>0.11874999999999999</v>
+        <f>E49/32</f>
+        <v>2.9687499999999999E-2</v>
       </c>
       <c r="H49">
-        <f t="shared" si="2"/>
-        <v>2.5333333333333332</v>
+        <f>F49/32</f>
+        <v>1.246875</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="A50" s="2">
         <v>12</v>
       </c>
-      <c r="B50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50">
-        <v>10000</v>
-      </c>
-      <c r="D50">
-        <v>9.4</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="B50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D50" s="2">
+        <v>18</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="F50" s="2">
+        <f>E50*42</f>
+        <v>79.8</v>
+      </c>
+      <c r="G50" s="2">
+        <f>E50/32</f>
+        <v>5.9374999999999997E-2</v>
+      </c>
+      <c r="H50" s="2">
+        <f>F50/32</f>
+        <v>2.4937499999999999</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -2373,27 +2380,27 @@
         <v>10000</v>
       </c>
       <c r="D51">
-        <v>11.33</v>
+        <v>24</v>
       </c>
       <c r="E51">
-        <v>0.95</v>
+        <v>3.8</v>
       </c>
       <c r="F51">
-        <f t="shared" si="0"/>
-        <v>39.9</v>
+        <f>E51*42</f>
+        <v>159.6</v>
       </c>
       <c r="G51">
-        <f t="shared" si="1"/>
-        <v>2.9687499999999999E-2</v>
+        <f>E51/32</f>
+        <v>0.11874999999999999</v>
       </c>
       <c r="H51">
-        <f t="shared" si="2"/>
-        <v>0.6333333333333333</v>
+        <f>F51/32</f>
+        <v>4.9874999999999998</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
@@ -2402,27 +2409,27 @@
         <v>10000</v>
       </c>
       <c r="D52">
-        <v>18</v>
+        <v>9.4</v>
       </c>
       <c r="E52">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <f t="shared" si="0"/>
-        <v>79.8</v>
+        <f>E52*42</f>
+        <v>0</v>
       </c>
       <c r="G52">
-        <f t="shared" si="1"/>
-        <v>5.9374999999999997E-2</v>
+        <f>E52/32</f>
+        <v>0</v>
       </c>
       <c r="H52">
-        <f t="shared" si="2"/>
-        <v>1.2666666666666666</v>
+        <f>F52/32</f>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
@@ -2431,22 +2438,22 @@
         <v>10000</v>
       </c>
       <c r="D53">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E53">
-        <v>3.8</v>
+        <v>0.95</v>
       </c>
       <c r="F53">
-        <f t="shared" si="0"/>
-        <v>159.6</v>
+        <f>E53*42</f>
+        <v>39.9</v>
       </c>
       <c r="G53">
-        <f t="shared" si="1"/>
-        <v>0.11874999999999999</v>
+        <f>E53/32</f>
+        <v>2.9687499999999999E-2</v>
       </c>
       <c r="H53">
-        <f t="shared" si="2"/>
-        <v>2.5333333333333332</v>
+        <f>F53/32</f>
+        <v>1.246875</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -2460,27 +2467,27 @@
         <v>10000</v>
       </c>
       <c r="D54">
-        <v>9.4</v>
+        <v>24</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="F54">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>E54*42</f>
+        <v>159.6</v>
       </c>
       <c r="G54">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>E54/32</f>
+        <v>0.11874999999999999</v>
       </c>
       <c r="H54">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>F54/32</f>
+        <v>4.9874999999999998</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
@@ -2489,80 +2496,80 @@
         <v>10000</v>
       </c>
       <c r="D55">
+        <v>9.4</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <f>E55*42</f>
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <f>E55/32</f>
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <f>F55/32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>10000</v>
+      </c>
+      <c r="D56">
+        <v>9.4</v>
+      </c>
+      <c r="E56">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="F56">
+        <f>E56*42</f>
+        <v>19.95</v>
+      </c>
+      <c r="G56">
+        <f>E56/32</f>
+        <v>1.4843749999999999E-2</v>
+      </c>
+      <c r="H56">
+        <f>F56/32</f>
+        <v>0.62343749999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>10000</v>
+      </c>
+      <c r="D57">
         <v>11</v>
       </c>
-      <c r="E55">
+      <c r="E57">
         <v>0.95</v>
       </c>
-      <c r="F55">
-        <f t="shared" si="0"/>
+      <c r="F57">
+        <f>E57*42</f>
         <v>39.9</v>
       </c>
-      <c r="G55">
-        <f t="shared" si="1"/>
+      <c r="G57">
+        <f>E57/32</f>
         <v>2.9687499999999999E-2</v>
       </c>
-      <c r="H55">
-        <f t="shared" si="2"/>
-        <v>0.6333333333333333</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>13</v>
-      </c>
-      <c r="B56" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56">
-        <v>10000</v>
-      </c>
-      <c r="D56">
-        <v>17.170000000000002</v>
-      </c>
-      <c r="E56">
-        <v>1.9</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="0"/>
-        <v>79.8</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="1"/>
-        <v>5.9374999999999997E-2</v>
-      </c>
-      <c r="H56">
-        <f t="shared" si="2"/>
-        <v>1.2666666666666666</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>13</v>
-      </c>
-      <c r="B57" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57">
-        <v>10000</v>
-      </c>
-      <c r="D57">
-        <v>24</v>
-      </c>
-      <c r="E57">
-        <v>3.8</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="0"/>
-        <v>159.6</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="1"/>
-        <v>0.11874999999999999</v>
-      </c>
       <c r="H57">
-        <f t="shared" si="2"/>
-        <v>2.5333333333333332</v>
+        <f>F57/32</f>
+        <v>1.246875</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -2576,27 +2583,27 @@
         <v>10000</v>
       </c>
       <c r="D58">
-        <v>9.4</v>
+        <v>24</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="F58">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>E58*42</f>
+        <v>159.6</v>
       </c>
       <c r="G58">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>E58/32</f>
+        <v>0.11874999999999999</v>
       </c>
       <c r="H58">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+        <f>F58/32</f>
+        <v>4.9874999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B59" t="s">
         <v>5</v>
@@ -2605,27 +2612,27 @@
         <v>10000</v>
       </c>
       <c r="D59">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="E59">
-        <v>0.47499999999999998</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <f t="shared" si="0"/>
-        <v>19.95</v>
+        <f>E59*42</f>
+        <v>0</v>
       </c>
       <c r="G59">
-        <f t="shared" si="1"/>
-        <v>1.4843749999999999E-2</v>
+        <f>E59/32</f>
+        <v>0</v>
       </c>
       <c r="H59">
-        <f t="shared" si="2"/>
-        <v>0.31666666666666665</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+        <f>F59/32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
@@ -2634,27 +2641,27 @@
         <v>10000</v>
       </c>
       <c r="D60">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E60">
-        <v>0.95</v>
+        <v>1.1875</v>
       </c>
       <c r="F60">
-        <f t="shared" si="0"/>
-        <v>39.9</v>
+        <f>E60*42</f>
+        <v>49.875</v>
       </c>
       <c r="G60">
-        <f t="shared" si="1"/>
-        <v>2.9687499999999999E-2</v>
+        <f>E60/32</f>
+        <v>3.7109375E-2</v>
       </c>
       <c r="H60">
-        <f t="shared" si="2"/>
-        <v>0.6333333333333333</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+        <f>F60/32</f>
+        <v>1.55859375</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
@@ -2663,27 +2670,27 @@
         <v>10000</v>
       </c>
       <c r="D61">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E61">
-        <v>1.9</v>
+        <v>1.425</v>
       </c>
       <c r="F61">
-        <f t="shared" si="0"/>
-        <v>79.8</v>
+        <f>E61*42</f>
+        <v>59.85</v>
       </c>
       <c r="G61">
-        <f t="shared" si="1"/>
-        <v>5.9374999999999997E-2</v>
+        <f>E61/32</f>
+        <v>4.4531250000000001E-2</v>
       </c>
       <c r="H61">
-        <f t="shared" si="2"/>
-        <v>1.2666666666666666</v>
+        <f>F61/32</f>
+        <v>1.8703125</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B62" t="s">
         <v>5</v>
@@ -2695,24 +2702,24 @@
         <v>24</v>
       </c>
       <c r="E62">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="F62">
-        <f t="shared" si="0"/>
-        <v>159.6</v>
+        <f>E62*42</f>
+        <v>79.8</v>
       </c>
       <c r="G62">
-        <f t="shared" si="1"/>
-        <v>0.11874999999999999</v>
+        <f>E62/32</f>
+        <v>5.9374999999999997E-2</v>
       </c>
       <c r="H62">
-        <f t="shared" si="2"/>
-        <v>2.5333333333333332</v>
+        <f>F62/32</f>
+        <v>2.4937499999999999</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
@@ -2727,21 +2734,21 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <f t="shared" si="0"/>
+        <f>E63*42</f>
         <v>0</v>
       </c>
       <c r="G63">
-        <f t="shared" si="1"/>
+        <f>E63/32</f>
         <v>0</v>
       </c>
       <c r="H63">
-        <f t="shared" si="2"/>
+        <f>F63/32</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B64" t="s">
         <v>5</v>
@@ -2756,21 +2763,21 @@
         <v>1.1875</v>
       </c>
       <c r="F64">
-        <f t="shared" si="0"/>
+        <f>E64*42</f>
         <v>49.875</v>
       </c>
       <c r="G64">
-        <f t="shared" si="1"/>
+        <f>E64/32</f>
         <v>3.7109375E-2</v>
       </c>
       <c r="H64">
-        <f t="shared" si="2"/>
-        <v>0.79166666666666663</v>
+        <f>F64/32</f>
+        <v>1.55859375</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
@@ -2785,21 +2792,21 @@
         <v>1.425</v>
       </c>
       <c r="F65">
-        <f t="shared" si="0"/>
+        <f>E65*42</f>
         <v>59.85</v>
       </c>
       <c r="G65">
-        <f t="shared" si="1"/>
+        <f>E65/32</f>
         <v>4.4531250000000001E-2</v>
       </c>
       <c r="H65">
-        <f t="shared" si="2"/>
-        <v>0.95000000000000007</v>
+        <f>F65/32</f>
+        <v>1.8703125</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
@@ -2814,21 +2821,21 @@
         <v>1.9</v>
       </c>
       <c r="F66">
-        <f t="shared" si="0"/>
+        <f>E66*42</f>
         <v>79.8</v>
       </c>
       <c r="G66">
-        <f t="shared" si="1"/>
+        <f>E66/32</f>
         <v>5.9374999999999997E-2</v>
       </c>
       <c r="H66">
-        <f t="shared" si="2"/>
-        <v>1.2666666666666666</v>
+        <f>F66/32</f>
+        <v>2.4937499999999999</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B67" t="s">
         <v>5</v>
@@ -2843,21 +2850,21 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F85" si="3">E67*42</f>
+        <f>E67*42</f>
         <v>0</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G85" si="4">E67/32</f>
+        <f>E67/32</f>
         <v>0</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H85" si="5">E67/1.5</f>
+        <f>F67/32</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
@@ -2866,27 +2873,27 @@
         <v>10000</v>
       </c>
       <c r="D68">
-        <v>24</v>
+        <v>23.8</v>
       </c>
       <c r="E68">
         <v>1.1875</v>
       </c>
       <c r="F68">
-        <f t="shared" si="3"/>
+        <f>E68*42</f>
         <v>49.875</v>
       </c>
       <c r="G68">
-        <f t="shared" si="4"/>
+        <f>E68/32</f>
         <v>3.7109375E-2</v>
       </c>
       <c r="H68">
-        <f t="shared" si="5"/>
-        <v>0.79166666666666663</v>
+        <f>F68/32</f>
+        <v>1.55859375</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
@@ -2901,21 +2908,21 @@
         <v>1.425</v>
       </c>
       <c r="F69">
-        <f t="shared" si="3"/>
+        <f>E69*42</f>
         <v>59.85</v>
       </c>
       <c r="G69">
-        <f t="shared" si="4"/>
+        <f>E69/32</f>
         <v>4.4531250000000001E-2</v>
       </c>
       <c r="H69">
-        <f t="shared" si="5"/>
-        <v>0.95000000000000007</v>
+        <f>F69/32</f>
+        <v>1.8703125</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B70" t="s">
         <v>5</v>
@@ -2924,27 +2931,27 @@
         <v>10000</v>
       </c>
       <c r="D70">
-        <v>24</v>
+        <v>9.33</v>
       </c>
       <c r="E70">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <f t="shared" si="3"/>
-        <v>79.8</v>
+        <f>E70*42</f>
+        <v>0</v>
       </c>
       <c r="G70">
-        <f t="shared" si="4"/>
-        <v>5.9374999999999997E-2</v>
+        <f>E70/32</f>
+        <v>0</v>
       </c>
       <c r="H70">
-        <f t="shared" si="5"/>
-        <v>1.2666666666666666</v>
+        <f>F70/32</f>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B71" t="s">
         <v>5</v>
@@ -2953,27 +2960,27 @@
         <v>10000</v>
       </c>
       <c r="D71">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1.0687500000000001</v>
       </c>
       <c r="F71">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>E71*42</f>
+        <v>44.887500000000003</v>
       </c>
       <c r="G71">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>E71/32</f>
+        <v>3.3398437500000003E-2</v>
       </c>
       <c r="H71">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>F71/32</f>
+        <v>1.4027343750000001</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B72" t="s">
         <v>5</v>
@@ -2982,27 +2989,27 @@
         <v>10000</v>
       </c>
       <c r="D72">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="E72">
-        <v>1.1875</v>
+        <v>1.9</v>
       </c>
       <c r="F72">
-        <f t="shared" si="3"/>
-        <v>49.875</v>
+        <f>E72*42</f>
+        <v>79.8</v>
       </c>
       <c r="G72">
-        <f t="shared" si="4"/>
-        <v>3.7109375E-2</v>
+        <f>E72/32</f>
+        <v>5.9374999999999997E-2</v>
       </c>
       <c r="H72">
-        <f t="shared" si="5"/>
-        <v>0.79166666666666663</v>
+        <f>F72/32</f>
+        <v>2.4937499999999999</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B73" t="s">
         <v>5</v>
@@ -3011,27 +3018,27 @@
         <v>10000</v>
       </c>
       <c r="D73">
-        <v>24</v>
+        <v>9.33</v>
       </c>
       <c r="E73">
-        <v>1.425</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <f t="shared" si="3"/>
-        <v>59.85</v>
+        <f>E73*42</f>
+        <v>0</v>
       </c>
       <c r="G73">
-        <f t="shared" si="4"/>
-        <v>4.4531250000000001E-2</v>
+        <f>E73/32</f>
+        <v>0</v>
       </c>
       <c r="H73">
-        <f t="shared" si="5"/>
-        <v>0.95000000000000007</v>
+        <f>F73/32</f>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B74" t="s">
         <v>5</v>
@@ -3040,27 +3047,27 @@
         <v>10000</v>
       </c>
       <c r="D74">
-        <v>9.33</v>
+        <v>24</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1.0687500000000001</v>
       </c>
       <c r="F74">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>E74*42</f>
+        <v>44.887500000000003</v>
       </c>
       <c r="G74">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>E74/32</f>
+        <v>3.3398437500000003E-2</v>
       </c>
       <c r="H74">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>F74/32</f>
+        <v>1.4027343750000001</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
@@ -3069,27 +3076,27 @@
         <v>10000</v>
       </c>
       <c r="D75">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E75">
-        <v>1.0687500000000001</v>
+        <v>1.9</v>
       </c>
       <c r="F75">
-        <f t="shared" si="3"/>
-        <v>44.887500000000003</v>
+        <f>E75*42</f>
+        <v>79.8</v>
       </c>
       <c r="G75">
-        <f t="shared" si="4"/>
-        <v>3.3398437500000003E-2</v>
+        <f>E75/32</f>
+        <v>5.9374999999999997E-2</v>
       </c>
       <c r="H75">
-        <f t="shared" si="5"/>
-        <v>0.71250000000000002</v>
+        <f>F75/32</f>
+        <v>2.4937499999999999</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B76" t="s">
         <v>5</v>
@@ -3098,27 +3105,27 @@
         <v>10000</v>
       </c>
       <c r="D76">
-        <v>24</v>
+        <v>9.5</v>
       </c>
       <c r="E76">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <f t="shared" si="3"/>
-        <v>79.8</v>
+        <f>E76*42</f>
+        <v>0</v>
       </c>
       <c r="G76">
-        <f t="shared" si="4"/>
-        <v>5.9374999999999997E-2</v>
+        <f>E76/32</f>
+        <v>0</v>
       </c>
       <c r="H76">
-        <f t="shared" si="5"/>
-        <v>1.2666666666666666</v>
+        <f>F76/32</f>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B77" t="s">
         <v>5</v>
@@ -3127,27 +3134,27 @@
         <v>10000</v>
       </c>
       <c r="D77">
-        <v>9.33</v>
+        <v>21.66</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1.0687500000000001</v>
       </c>
       <c r="F77">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>E77*42</f>
+        <v>44.887500000000003</v>
       </c>
       <c r="G77">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>E77/32</f>
+        <v>3.3398437500000003E-2</v>
       </c>
       <c r="H77">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>F77/32</f>
+        <v>1.4027343750000001</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B78" t="s">
         <v>5</v>
@@ -3159,24 +3166,24 @@
         <v>24</v>
       </c>
       <c r="E78">
-        <v>1.0687500000000001</v>
+        <v>1.9</v>
       </c>
       <c r="F78">
-        <f t="shared" si="3"/>
-        <v>44.887500000000003</v>
+        <f>E78*42</f>
+        <v>79.8</v>
       </c>
       <c r="G78">
-        <f t="shared" si="4"/>
-        <v>3.3398437500000003E-2</v>
+        <f>E78/32</f>
+        <v>5.9374999999999997E-2</v>
       </c>
       <c r="H78">
-        <f t="shared" si="5"/>
-        <v>0.71250000000000002</v>
+        <f>F78/32</f>
+        <v>2.4937499999999999</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B79" t="s">
         <v>5</v>
@@ -3185,27 +3192,27 @@
         <v>10000</v>
       </c>
       <c r="D79">
-        <v>24</v>
+        <v>9.5</v>
       </c>
       <c r="E79">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <f t="shared" si="3"/>
-        <v>79.8</v>
+        <f>E79*42</f>
+        <v>0</v>
       </c>
       <c r="G79">
-        <f t="shared" si="4"/>
-        <v>5.9374999999999997E-2</v>
+        <f>E79/32</f>
+        <v>0</v>
       </c>
       <c r="H79">
-        <f t="shared" si="5"/>
-        <v>1.2666666666666666</v>
+        <f>F79/32</f>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B80" t="s">
         <v>5</v>
@@ -3214,27 +3221,27 @@
         <v>10000</v>
       </c>
       <c r="D80">
-        <v>9.5</v>
+        <v>19.170000000000002</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1.0687500000000001</v>
       </c>
       <c r="F80">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>E80*42</f>
+        <v>44.887500000000003</v>
       </c>
       <c r="G80">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>E80/32</f>
+        <v>3.3398437500000003E-2</v>
       </c>
       <c r="H80">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>F80/32</f>
+        <v>1.4027343750000001</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
@@ -3243,141 +3250,28 @@
         <v>10000</v>
       </c>
       <c r="D81">
-        <v>21.66</v>
+        <v>24</v>
       </c>
       <c r="E81">
-        <v>1.0687500000000001</v>
+        <v>1.9</v>
       </c>
       <c r="F81">
-        <f t="shared" si="3"/>
-        <v>44.887500000000003</v>
+        <f>E81*42</f>
+        <v>79.8</v>
       </c>
       <c r="G81">
-        <f t="shared" si="4"/>
-        <v>3.3398437500000003E-2</v>
+        <f>E81/32</f>
+        <v>5.9374999999999997E-2</v>
       </c>
       <c r="H81">
-        <f t="shared" si="5"/>
-        <v>0.71250000000000002</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>20</v>
-      </c>
-      <c r="B82" t="s">
-        <v>5</v>
-      </c>
-      <c r="C82">
-        <v>10000</v>
-      </c>
-      <c r="D82">
-        <v>24</v>
-      </c>
-      <c r="E82">
-        <v>1.9</v>
-      </c>
-      <c r="F82">
-        <f t="shared" si="3"/>
-        <v>79.8</v>
-      </c>
-      <c r="G82">
-        <f t="shared" si="4"/>
-        <v>5.9374999999999997E-2</v>
-      </c>
-      <c r="H82">
-        <f t="shared" si="5"/>
-        <v>1.2666666666666666</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>21</v>
-      </c>
-      <c r="B83" t="s">
-        <v>5</v>
-      </c>
-      <c r="C83">
-        <v>10000</v>
-      </c>
-      <c r="D83">
-        <v>9.5</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G83">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>21</v>
-      </c>
-      <c r="B84" t="s">
-        <v>5</v>
-      </c>
-      <c r="C84">
-        <v>10000</v>
-      </c>
-      <c r="D84">
-        <v>19.170000000000002</v>
-      </c>
-      <c r="E84">
-        <v>1.0687500000000001</v>
-      </c>
-      <c r="F84">
-        <f t="shared" si="3"/>
-        <v>44.887500000000003</v>
-      </c>
-      <c r="G84">
-        <f t="shared" si="4"/>
-        <v>3.3398437500000003E-2</v>
-      </c>
-      <c r="H84">
-        <f t="shared" si="5"/>
-        <v>0.71250000000000002</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>21</v>
-      </c>
-      <c r="B85" t="s">
-        <v>5</v>
-      </c>
-      <c r="C85">
-        <v>10000</v>
-      </c>
-      <c r="D85">
-        <v>24</v>
-      </c>
-      <c r="E85">
-        <v>1.9</v>
-      </c>
-      <c r="F85">
-        <f t="shared" si="3"/>
-        <v>79.8</v>
-      </c>
-      <c r="G85">
-        <f t="shared" si="4"/>
-        <v>5.9374999999999997E-2</v>
-      </c>
-      <c r="H85">
-        <f t="shared" si="5"/>
-        <v>1.2666666666666666</v>
+        <f>F81/32</f>
+        <v>2.4937499999999999</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H82">
+    <sortCondition ref="A1:A82"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>